--- a/Operational_costs.xlsx
+++ b/Operational_costs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A907A-73B9-4781-8978-2D2C5A431378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906E2F3F-E30E-4554-A47D-8F9D9A10AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFD4A2C6-7FD4-44BD-9447-5A22080502F0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DFD4A2C6-7FD4-44BD-9447-5A22080502F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fix costs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Geothermal</t>
   </si>
@@ -59,23 +60,70 @@
     <t>Hydropower</t>
   </si>
   <si>
-    <t>Soalr</t>
-  </si>
-  <si>
     <t>Wind</t>
+  </si>
+  <si>
+    <t>Euro/MW</t>
+  </si>
+  <si>
+    <t>https://energy.ec.europa.eu/system/files/2020-10/final_report_levelised_costs_0.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/reports/projected-costs-of-generating-electricity-2020</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Solar Utility</t>
+  </si>
+  <si>
+    <t>Solar Commercal</t>
+  </si>
+  <si>
+    <t>Solar Residential</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>https://www.power-technology.com/features/featurepower-plant-om-how-does-the-industry-stack-up-on-cost-4417756/</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/519144/power-plant-operation-and-maintenance-costs-in-the-us-by-technology/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,14 +143,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9938DD2D-1782-43C9-A19D-B47F8F04D645}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,10 +505,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -490,4 +543,300 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626094EC-90C9-4E40-BA7C-604694D4F9C9}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I8:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>110400</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <f xml:space="preserve"> 1223116.57153211 * 0.019</f>
+        <v>23239.214859110089</v>
+      </c>
+      <c r="E2" s="3">
+        <f>10985716.1426707*0.021</f>
+        <v>230700.03899608471</v>
+      </c>
+      <c r="F2" s="3">
+        <f xml:space="preserve"> 4758440.0109386 * 0.04</f>
+        <v>190337.600437544</v>
+      </c>
+      <c r="G2" s="3">
+        <f xml:space="preserve"> 7581719.93567359 * 0.03</f>
+        <v>227451.59807020769</v>
+      </c>
+      <c r="H2" s="3">
+        <f xml:space="preserve"> 6575679.36723557* 0.025</f>
+        <v>164391.98418088927</v>
+      </c>
+      <c r="I2" s="3">
+        <f>6547865.32672203 * 0.02</f>
+        <v>130957.30653444059</v>
+      </c>
+      <c r="J2" s="3">
+        <f xml:space="preserve"> 2044117.98035131 * 0.02</f>
+        <v>40882.359607026199</v>
+      </c>
+      <c r="K2" s="3">
+        <f xml:space="preserve"> 2700680.18282229 * 0.02</f>
+        <v>54013.603656445797</v>
+      </c>
+      <c r="L2" s="3">
+        <f xml:space="preserve"> 2160971.11555377 *0.01</f>
+        <v>21609.711155537701</v>
+      </c>
+      <c r="M2" s="3">
+        <f xml:space="preserve"> 6547865.32672203 * 0.02</f>
+        <v>130957.30653444059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>25000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>198000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>53000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>46000</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <f>42.49 * 1000/0.8458</f>
+        <v>50236.462520690467</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f>AVERAGE(14.76,12.77) * 1000/0.8458</f>
+        <v>16274.532986521637</v>
+      </c>
+      <c r="E5" s="3">
+        <f>143.22 * 1000/0.8458</f>
+        <v>169330.81106644598</v>
+      </c>
+      <c r="F5" s="3">
+        <f>131.62 * 1000/0.8458</f>
+        <v>155615.98486639868</v>
+      </c>
+      <c r="G5" s="3">
+        <f>AVERAGE(127.35,99.46) * 1000/0.8458</f>
+        <v>134080.16079451406</v>
+      </c>
+      <c r="H5" s="3">
+        <f>43.78 * 1000/0.8458</f>
+        <v>51761.645779144004</v>
+      </c>
+      <c r="I5" s="3">
+        <f>15.97 * 1000/0.8458</f>
+        <v>18881.532277134076</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:K5" si="0">15.97 * 1000/0.8458</f>
+        <v>18881.532277134076</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>18881.532277134076</v>
+      </c>
+      <c r="L5" s="3">
+        <f>27.57 * 1000/0.8458</f>
+        <v>32596.358477181366</v>
+      </c>
+      <c r="M5" s="3">
+        <f>115.16 * 1000/0.8458</f>
+        <v>136155.11941357295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <f>AVERAGE(B2:B5)</f>
+        <v>63409.115630172615</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:M6" si="1">AVERAGE(C2:C5)</f>
+        <v>15000</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>23628.43696140793</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>200015.42503126536</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>172976.79265197134</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>154882.93971618044</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>79788.407490008321</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>48709.70970289367</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>26587.963961386758</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>32631.711977859959</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>32551.517408179767</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>122370.80864933785</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{689CF939-66CD-4D5F-BBAE-4074BE377B7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Operational_costs.xlsx
+++ b/Operational_costs.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906E2F3F-E30E-4554-A47D-8F9D9A10AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE32B989-18C3-4DED-968F-0C50BD59CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DFD4A2C6-7FD4-44BD-9447-5A22080502F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFD4A2C6-7FD4-44BD-9447-5A22080502F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Fix costs" sheetId="2" r:id="rId2"/>
+    <sheet name="Variable O and M costs" sheetId="4" r:id="rId1"/>
+    <sheet name="Fixed O and M costs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Table generator" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>Geothermal</t>
   </si>
@@ -90,20 +92,59 @@
     <t>Wind Offshore</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>https://www.power-technology.com/features/featurepower-plant-om-how-does-the-industry-stack-up-on-cost-4417756/</t>
-  </si>
-  <si>
     <t>https://www.statista.com/statistics/519144/power-plant-operation-and-maintenance-costs-in-the-us-by-technology/</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>Dollar/kw_year</t>
+  </si>
+  <si>
+    <t>Dollar/MW_year</t>
+  </si>
+  <si>
+    <t>Eurp/MW_year</t>
+  </si>
+  <si>
+    <t>Solar Commerce</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Gas CT</t>
+  </si>
+  <si>
+    <t>Gas CC</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Statista</t>
+  </si>
+  <si>
+    <t>NREL</t>
+  </si>
+  <si>
+    <t>Trinomics</t>
+  </si>
+  <si>
+    <t>iea</t>
+  </si>
+  <si>
+    <t>Euro/MWh</t>
+  </si>
+  <si>
+    <t>Euro/MW/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +165,27 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,12 +209,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,106 +534,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9938DD2D-1782-43C9-A19D-B47F8F04D645}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7D8FCC-AF36-4698-91A4-24D541B7C388}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15.85</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.66</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2.1</v>
+      </c>
+      <c r="E2">
+        <v>0.32</v>
+      </c>
+      <c r="G2">
+        <v>6.4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>4.71</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(2.67,1.96)</f>
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.21</v>
+      </c>
+      <c r="F3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(2.48,3.14)</f>
+        <v>2.81</v>
+      </c>
+      <c r="H3">
+        <v>1.46</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>4.57</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:J5" si="0">AVERAGE(C2:C4)</f>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.4716666666666667</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.0299999999999994</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.7366666666666668</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.48666666666666664</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2E666EB9-C94C-431B-9B09-46AE90DDDD43}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{121CEAE8-31B4-4F5E-8F84-A2EC32752A1F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626094EC-90C9-4E40-BA7C-604694D4F9C9}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I8:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="I6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="112.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -699,144 +866,888 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>43000</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>153763.44086021505</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18279.569892473119</v>
+      </c>
       <c r="D4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>21505.37634408602</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16129.032258064515</v>
+      </c>
+      <c r="F4" s="3">
+        <v>236559.13978494622</v>
+      </c>
       <c r="G4" s="3">
-        <v>198000</v>
+        <v>81720.430107526874</v>
       </c>
       <c r="H4" s="3">
-        <v>53000</v>
+        <v>7526.8817204301067</v>
       </c>
       <c r="I4" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>15053.763440860213</v>
+      </c>
+      <c r="J4" s="3">
+        <v>46236.559139784942</v>
+      </c>
+      <c r="K4" s="3">
+        <v>102150.5376344086</v>
+      </c>
       <c r="L4" s="3">
-        <v>46000</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <f>42.49 * 1000/0.8458</f>
-        <v>50236.462520690467</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <f>AVERAGE(14.76,12.77) * 1000/0.8458</f>
-        <v>16274.532986521637</v>
-      </c>
-      <c r="E5" s="3">
-        <f>143.22 * 1000/0.8458</f>
-        <v>169330.81106644598</v>
-      </c>
-      <c r="F5" s="3">
-        <f>131.62 * 1000/0.8458</f>
-        <v>155615.98486639868</v>
-      </c>
-      <c r="G5" s="3">
-        <f>AVERAGE(127.35,99.46) * 1000/0.8458</f>
-        <v>134080.16079451406</v>
-      </c>
-      <c r="H5" s="3">
-        <f>43.78 * 1000/0.8458</f>
-        <v>51761.645779144004</v>
-      </c>
-      <c r="I5" s="3">
-        <f>15.97 * 1000/0.8458</f>
-        <v>18881.532277134076</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" ref="J5:K5" si="0">15.97 * 1000/0.8458</f>
-        <v>18881.532277134076</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>18881.532277134076</v>
-      </c>
-      <c r="L5" s="3">
-        <f>27.57 * 1000/0.8458</f>
-        <v>32596.358477181366</v>
-      </c>
-      <c r="M5" s="3">
+        <v>62365.591397849457</v>
+      </c>
+      <c r="M4" s="3">
         <f>115.16 * 1000/0.8458</f>
         <v>136155.11941357295</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>220000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>107000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>95000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>76000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="3">
+        <v>51000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>143000</v>
+      </c>
+    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
-        <f>AVERAGE(B2:B5)</f>
-        <v>63409.115630172615</v>
+        <f t="shared" ref="B6:M6" si="0">AVERAGE(B2:B5)</f>
+        <v>89290.860215053763</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:M6" si="1">AVERAGE(C2:C5)</f>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>13426.52329749104</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>23628.43696140793</v>
+        <f t="shared" si="0"/>
+        <v>23436.147800799026</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>200015.42503126536</v>
+        <f t="shared" si="0"/>
+        <v>155609.69041804972</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>172976.79265197134</v>
+        <f t="shared" si="0"/>
+        <v>177965.58007416339</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>154882.93971618044</v>
+        <f t="shared" si="0"/>
+        <v>116043.00704443365</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>79788.407490008321</v>
+        <f t="shared" si="0"/>
+        <v>74479.716475329842</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
-        <v>48709.70970289367</v>
+        <f t="shared" si="0"/>
+        <v>45252.767493825202</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>26587.963961386758</v>
+        <f t="shared" si="0"/>
+        <v>31029.729686702784</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>32631.711977859959</v>
+        <f t="shared" si="0"/>
+        <v>50291.0353227136</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="1"/>
-        <v>32551.517408179767</v>
+        <f t="shared" si="0"/>
+        <v>41243.825638346789</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
-        <v>122370.80864933785</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
+        <f t="shared" si="0"/>
+        <v>127528.10648700339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{689CF939-66CD-4D5F-BBAE-4074BE377B7C}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{B75E46BC-D610-48DB-AAF4-7ED3A55D08EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B158A1FA-41AC-43AF-B095-25CBB97B4D24}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>143</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>220</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>43</v>
+      </c>
+      <c r="L2">
+        <v>95</v>
+      </c>
+      <c r="M2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>B2*1000</f>
+        <v>51000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:M3" si="0">C2*1000</f>
+        <v>143000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>76000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>43000</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>95000</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3/0.93</f>
+        <v>54838.709677419349</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:M4" si="1">C3/0.93</f>
+        <v>153763.44086021505</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>18279.569892473119</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>21505.37634408602</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>16129.032258064515</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>236559.13978494622</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>81720.430107526874</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>7526.8817204301067</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>15053.763440860213</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>46236.559139784942</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>102150.5376344086</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>62365.591397849457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE37C4ED-8589-4364-A3DC-F041845FEB04}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A10:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="107.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3">
+        <v>110400</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <f xml:space="preserve"> 1223116.57153211 * 0.019</f>
+        <v>23239.214859110089</v>
+      </c>
+      <c r="E2" s="3">
+        <f>10985716.1426707*0.021</f>
+        <v>230700.03899608471</v>
+      </c>
+      <c r="F2" s="3">
+        <f xml:space="preserve"> 7581719.93567359 * 0.03</f>
+        <v>227451.59807020769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>153763.44086021505</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18279.569892473119</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21505.37634408602</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16129.032258064515</v>
+      </c>
+      <c r="F4" s="3">
+        <v>81720.430107526874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>220000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6">
+        <f>AVERAGE(B2:B5)</f>
+        <v>89290.860215053763</v>
+      </c>
+      <c r="C6" s="6">
+        <f>AVERAGE(C2:C5)</f>
+        <v>13426.52329749104</v>
+      </c>
+      <c r="D6" s="6">
+        <f>AVERAGE(D2:D5)</f>
+        <v>23436.147800799026</v>
+      </c>
+      <c r="E6" s="6">
+        <f>AVERAGE(E2:E5)</f>
+        <v>155609.69041804972</v>
+      </c>
+      <c r="F6" s="6">
+        <f>AVERAGE(F2:F5)</f>
+        <v>116043.00704443365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <f xml:space="preserve"> 6575679.36723557* 0.025</f>
+        <v>164391.98418088927</v>
+      </c>
+      <c r="C11" s="3">
+        <f xml:space="preserve"> 4758440.0109386 * 0.04</f>
+        <v>190337.600437544</v>
+      </c>
+      <c r="D11" s="3">
+        <f xml:space="preserve"> 2160971.11555377 *0.01</f>
+        <v>21609.711155537701</v>
+      </c>
+      <c r="E11" s="3">
+        <f xml:space="preserve"> 6547865.32672203 * 0.02</f>
+        <v>130957.30653444059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7526.8817204301067</v>
+      </c>
+      <c r="C13" s="3">
+        <v>236559.13978494622</v>
+      </c>
+      <c r="D13" s="3">
+        <v>62365.591397849457</v>
+      </c>
+      <c r="E13" s="3">
+        <f>115.16 * 1000/0.8458</f>
+        <v>136155.11941357295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>76000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>107000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6">
+        <f>AVERAGE(B11:B14)</f>
+        <v>74479.716475329842</v>
+      </c>
+      <c r="C15" s="6">
+        <f>AVERAGE(C11:C14)</f>
+        <v>177965.58007416339</v>
+      </c>
+      <c r="D15" s="6">
+        <f>AVERAGE(D11:D14)</f>
+        <v>41243.825638346789</v>
+      </c>
+      <c r="E15" s="6">
+        <f>AVERAGE(E11:E14)</f>
+        <v>127528.10648700339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <f>6547865.32672203 * 0.02</f>
+        <v>130957.30653444059</v>
+      </c>
+      <c r="C18" s="3">
+        <f xml:space="preserve"> 2044117.98035131 * 0.02</f>
+        <v>40882.359607026199</v>
+      </c>
+      <c r="D18" s="3">
+        <f xml:space="preserve"> 2700680.18282229 * 0.02</f>
+        <v>54013.603656445797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15053.763440860213</v>
+      </c>
+      <c r="C20" s="3">
+        <v>46236.559139784942</v>
+      </c>
+      <c r="D20" s="3">
+        <v>102150.5376344086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6">
+        <f>AVERAGE(B18:B21)</f>
+        <v>45252.767493825202</v>
+      </c>
+      <c r="C22" s="6">
+        <f>AVERAGE(C18:C21)</f>
+        <v>31029.729686702784</v>
+      </c>
+      <c r="D22" s="6">
+        <f>AVERAGE(D18:D21)</f>
+        <v>50291.0353227136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2.1</v>
+      </c>
+      <c r="E28">
+        <v>0.32</v>
+      </c>
+      <c r="G28">
+        <v>6.4</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>4.71</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(2.67,1.96)</f>
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="E29">
+        <v>1.21</v>
+      </c>
+      <c r="F29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(2.48,3.14)</f>
+        <v>2.81</v>
+      </c>
+      <c r="H29">
+        <v>1.46</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(B28:B30)</f>
+        <v>4.57</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:J31" si="0">AVERAGE(C28:C30)</f>
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.4716666666666667</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>5.0299999999999994</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3.7366666666666668</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.48666666666666664</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>